--- a/level-3/hackerearth/phase-3-advanced-data-structures-1/hackerearth-phase-3-advanced-data-structures-1.xlsx
+++ b/level-3/hackerearth/phase-3-advanced-data-structures-1/hackerearth-phase-3-advanced-data-structures-1.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6483D84-B28E-4079-8636-8144D87A579D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCE6E66-E8BB-483B-90FB-84FCFC43BF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - data structures 1" sheetId="14" r:id="rId1"/>
+    <sheet name="advanced-data-structures-1" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -594,12 +607,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -612,19 +625,13 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,81 +1184,81 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C125)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C125)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D125)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E125)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F125)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G125)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H125)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1270,17 +1277,17 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1291,16 +1298,16 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1321,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1342,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1359,11 +1366,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H71" si="0">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1380,11 +1387,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1401,11 +1408,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1422,11 +1429,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1437,17 +1444,17 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1464,11 +1471,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1485,11 +1492,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1506,11 +1513,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1527,11 +1534,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1548,11 +1555,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1563,17 +1570,17 @@
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1590,11 +1597,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1611,11 +1618,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1626,17 +1633,17 @@
       <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1653,11 +1660,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1674,11 +1681,11 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1695,11 +1702,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1716,11 +1723,11 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1737,11 +1744,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1758,11 +1765,11 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1779,11 +1786,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1800,11 +1807,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1815,17 +1822,17 @@
       <c r="B30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1836,17 +1843,17 @@
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1863,11 +1870,11 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1884,11 +1891,11 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1899,17 +1906,17 @@
       <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1920,17 +1927,17 @@
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1947,11 +1954,11 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1962,17 +1969,17 @@
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1989,11 +1996,11 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2004,17 +2011,17 @@
       <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2031,11 +2038,11 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2052,11 +2059,11 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2073,11 +2080,11 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2094,11 +2101,11 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2109,17 +2116,17 @@
       <c r="B44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2130,17 +2137,17 @@
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2151,17 +2158,17 @@
       <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2172,17 +2179,17 @@
       <c r="B47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2199,11 +2206,11 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2214,17 +2221,17 @@
       <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2241,11 +2248,11 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2262,11 +2269,11 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="12" t="s">
+      <c r="J51" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2283,11 +2290,11 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2304,11 +2311,11 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2319,17 +2326,17 @@
       <c r="B54" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="12" t="s">
+      <c r="J54" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2340,17 +2347,17 @@
       <c r="B55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="12" t="s">
+      <c r="J55" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2361,17 +2368,17 @@
       <c r="B56" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2382,17 +2389,17 @@
       <c r="B57" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="12" t="s">
+      <c r="J57" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2403,17 +2410,17 @@
       <c r="B58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2430,11 +2437,11 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2445,17 +2452,17 @@
       <c r="B60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="12" t="s">
+      <c r="J60" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2472,11 +2479,11 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2493,11 +2500,11 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2514,11 +2521,11 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="12" t="s">
+      <c r="J63" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2535,11 +2542,11 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="12" t="s">
+      <c r="J64" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2550,17 +2557,17 @@
       <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="12" t="s">
+      <c r="J65" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2571,17 +2578,17 @@
       <c r="B66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="12" t="s">
+      <c r="J66" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2598,11 +2605,11 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="12" t="s">
+      <c r="J67" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2613,17 +2620,17 @@
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="12" t="s">
+      <c r="J68" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2634,17 +2641,17 @@
       <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2661,11 +2668,11 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="12" t="s">
+      <c r="J70" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2676,17 +2683,17 @@
       <c r="B71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2697,17 +2704,17 @@
       <c r="B72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" ref="H72:H113" si="1">SUM(C72:G72)</f>
+        <f t="shared" ref="H72:H113" si="2">SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="12" t="s">
+      <c r="J72" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2718,17 +2725,17 @@
       <c r="B73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2739,16 +2746,16 @@
       <c r="B74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2759,16 +2766,16 @@
       <c r="B75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2785,10 +2792,10 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2805,10 +2812,10 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2825,10 +2832,10 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2845,10 +2852,10 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2859,16 +2866,16 @@
       <c r="B80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2879,16 +2886,16 @@
       <c r="B81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2905,10 +2912,10 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2919,16 +2926,16 @@
       <c r="B83" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2939,16 +2946,16 @@
       <c r="B84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2959,16 +2966,16 @@
       <c r="B85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2979,16 +2986,16 @@
       <c r="B86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2999,16 +3006,16 @@
       <c r="B87" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3019,16 +3026,16 @@
       <c r="B88" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3039,16 +3046,16 @@
       <c r="B89" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3059,16 +3066,16 @@
       <c r="B90" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3079,16 +3086,16 @@
       <c r="B91" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3099,16 +3106,16 @@
       <c r="B92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3125,10 +3132,10 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3145,10 +3152,10 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3159,16 +3166,16 @@
       <c r="B95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3185,10 +3192,10 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3199,16 +3206,16 @@
       <c r="B97" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3219,16 +3226,16 @@
       <c r="B98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3239,16 +3246,16 @@
       <c r="B99" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3259,16 +3266,16 @@
       <c r="B100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3285,10 +3292,10 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3305,10 +3312,10 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3319,16 +3326,16 @@
       <c r="B103" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3339,16 +3346,16 @@
       <c r="B104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3359,16 +3366,16 @@
       <c r="B105" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3379,16 +3386,16 @@
       <c r="B106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
       <c r="H106" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3405,10 +3412,10 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3419,16 +3426,16 @@
       <c r="B108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3439,16 +3446,16 @@
       <c r="B109" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3459,16 +3466,16 @@
       <c r="B110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
       <c r="H110" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3479,16 +3486,16 @@
       <c r="B111" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3499,16 +3506,16 @@
       <c r="B112" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3519,16 +3526,16 @@
       <c r="B113" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
       <c r="H113" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3539,16 +3546,16 @@
       <c r="B114" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="11">
-        <f t="shared" ref="H114:H125" si="2">SUM(C114:G114)</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="13" t="s">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="7">
+        <f t="shared" ref="H114:H125" si="3">SUM(C114:G114)</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3559,16 +3566,16 @@
       <c r="B115" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="13" t="s">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3579,16 +3586,16 @@
       <c r="B116" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="13" t="s">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3599,16 +3606,16 @@
       <c r="B117" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="13" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3619,16 +3626,16 @@
       <c r="B118" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="13" t="s">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3639,16 +3646,16 @@
       <c r="B119" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="13" t="s">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3659,16 +3666,16 @@
       <c r="B120" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="13" t="s">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3679,16 +3686,16 @@
       <c r="B121" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="13" t="s">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3699,16 +3706,16 @@
       <c r="B122" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="13" t="s">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3719,16 +3726,16 @@
       <c r="B123" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="13" t="s">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3739,16 +3746,16 @@
       <c r="B124" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="13" t="s">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3759,16 +3766,16 @@
       <c r="B125" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="13" t="s">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="11" t="s">
         <v>126</v>
       </c>
     </row>

--- a/level-3/hackerearth/phase-3-advanced-data-structures-1/hackerearth-phase-3-advanced-data-structures-1.xlsx
+++ b/level-3/hackerearth/phase-3-advanced-data-structures-1/hackerearth-phase-3-advanced-data-structures-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCE6E66-E8BB-483B-90FB-84FCFC43BF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1957D9F-FB79-4288-80B0-0BDCB62BF32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,169 +675,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3792,121 +3630,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="22" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="21" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="20" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="19" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="17" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="16" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="14" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="13" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="12" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J117">
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J121">
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{B397740A-17E1-4FB0-B9F2-A66138F504BB}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{0938CEC3-ED3C-4BCB-8A59-86C0AA066958}"/>
